--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_255.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_255.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,644 +488,662 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09715136054421769</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min7/4', 'E:7', 'A']]</t>
-        </is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_86</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06136616068122917</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
+          <t>[['Ab:7', 'Ab:7', 'Db', 'Db', 'Bb:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(47.371, 50.945)]</t>
+          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'C:7', 'C:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.66, 10.95)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:27.540000', '0:01:33.710000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:22.950000', '0:00:28.720000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2401960784313725</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_208</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1403846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:min', 'Bb:min', 'Ab']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
+          <t>[['E:min/5', 'A:min', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:18.361746', '0:00:21.879569')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:20.556031', '0:00:26.744149')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09166666666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['E:7', 'A', 'A'], ['B:7', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.66, 7.98)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:24.631133', '0:00:29.751133'), ('0:00:22.622607', '0:00:28.741065')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:18.070000', '0:00:19.250000'), ('0:00:04.830000', '0:00:07.280000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.194331983805668</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_62</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02511086474501108</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>[['D:7', 'G:min7', 'C:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(102.174263, 111.798209), (105.425056, 115.003287)]</t>
+          <t>[['D:7', 'G:min7', 'C:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.717755, 26.14043), (6.357029, 23.632675)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:20.060000', '0:00:22.100000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:29.420000', '0:00:30.520000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1122994652406417</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'C#:min', 'F#:min']]</t>
+          <t>[['F/5', 'C:maj', 'D:min7/b7'], ['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(43.027, 47.673)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.14034, 18.686825)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:04.555000', '0:00:10.619000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:09.060000', '0:01:12.500000'), ('0:00:17.340000', '0:00:24.400000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(21.5, 24.4)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.6, 10.54)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4555555555555556</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.162102, 14.073123)]</t>
+          <t>[('0:00:01.302038', '0:00:06.740158')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(121.74, 125.0)]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(24.28, 51.08)]</t>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min/F', 'F', 'A#:min']]</t>
+          <t>[['E:7', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34), (9.24, 16.26)]</t>
+          <t>[['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(24.68, 28.56), (13.36, 18.32)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:03.509000', '0:00:13.840000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:42.340000', '0:00:45.160000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(70.34, 77.22)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(66.76, 75.7)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(19.5, 30.32), (72.42, 75.58), (74.4, 81.68), (75.58, 86.06)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(53.5, 61.32), (58.12, 62.72), (68.64, 77.38), (6.84, 12.46)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(92.26, 99.02), (124.3, 129.24)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(114.3, 123.14), (19.82, 29.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
